--- a/documents/exemplo-xls.xlsx
+++ b/documents/exemplo-xls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>variavel id</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>popoulacao</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -52,6 +58,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -136,14 +143,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -166,7 +173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>19</v>
       </c>
@@ -179,8 +186,11 @@
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>19</v>
       </c>
@@ -192,6 +202,12 @@
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3333333333</v>
       </c>
     </row>
   </sheetData>
